--- a/biology/Botanique/Parc_du_chevreuil/Parc_du_chevreuil.xlsx
+++ b/biology/Botanique/Parc_du_chevreuil/Parc_du_chevreuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin du chevreuil (estonien : Kitseaed) est un parc de Kesklinn au centre de Tallinn en Estonie[1] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin du chevreuil (estonien : Kitseaed) est un parc de Kesklinn au centre de Tallinn en Estonie .
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc  est baptisé le 16 mai 1989 .
 Le petit parc a été créé situé à l' intersection de la rue Nunne et de la rue Laiaa dans le centre-ville  en 1927. 
-En 1930, la statue nommée "le chevreuil" sculptée en 1929 par  Jaan Koort est érigée dans le parc[2]. 
+En 1930, la statue nommée "le chevreuil" sculptée en 1929 par  Jaan Koort est érigée dans le parc. 
 Le cerf fait référence à la légende selon laquelle un roi danois chassait un cerf, qui tombe ensuite des falaises de Toompea. 
 En 1952, on installe des bancs et on construit des escaliers. Le parc a été rénové en 2018.
 </t>
